--- a/src/main/resources/ru/avem/posshop/app/protocolInsulation.xlsx
+++ b/src/main/resources/ru/avem/posshop/app/protocolInsulation.xlsx
@@ -296,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -339,9 +339,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -361,12 +358,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -378,9 +378,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,7 +725,7 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,20 +762,20 @@
       <c r="D2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="24" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
     </row>
     <row r="3" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -836,17 +833,17 @@
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
     </row>
     <row r="7" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
@@ -854,11 +851,11 @@
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="8"/>
       <c r="I7" s="7"/>
       <c r="M7" s="27" t="s">
@@ -866,12 +863,12 @@
       </c>
       <c r="N7" s="27"/>
       <c r="O7" s="27"/>
-      <c r="P7" s="25" t="s">
+      <c r="P7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
     </row>
     <row r="8" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
@@ -879,11 +876,11 @@
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="8"/>
       <c r="I8" s="7"/>
       <c r="M8" s="27" t="s">
@@ -891,12 +888,12 @@
       </c>
       <c r="N8" s="27"/>
       <c r="O8" s="27"/>
-      <c r="P8" s="25" t="s">
+      <c r="P8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
     </row>
     <row r="9" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
@@ -904,11 +901,11 @@
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -920,12 +917,12 @@
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
       <c r="O9" s="26"/>
-      <c r="P9" s="25" t="s">
+      <c r="P9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
     </row>
     <row r="10" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -956,10 +953,10 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -973,7 +970,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -991,6 +988,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="M2:Q2"/>
@@ -1007,7 +1005,6 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A5:S5"/>
-    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="35" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1023,7 +1020,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,70 +1040,70 @@
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="20"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/src/main/resources/ru/avem/posshop/app/protocolInsulation.xlsx
+++ b/src/main/resources/ru/avem/posshop/app/protocolInsulation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$S$214</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet2!$A$1:$S$789</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet2!$A$1:$S$200</definedName>
   </definedNames>
-  <calcPr calcId="0" calcMode="manual" iterateDelta="1E-4"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,71 +24,101 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
   <si>
     <t>Стенд для испытания ПОС лопасти несущего винта изд. «260-2901-00»</t>
   </si>
   <si>
+    <t>Номер и дата аттестации:</t>
+  </si>
+  <si>
+    <t>#NUMBER_DATE_ATTESTATION#</t>
+  </si>
+  <si>
     <t>Испытательное оборудование</t>
   </si>
   <si>
     <t>ООО «Авиаагрегат-Н»</t>
   </si>
   <si>
+    <t>#NAME_OF_OPERATION#</t>
+  </si>
+  <si>
     <t>Протокол испытания №:</t>
   </si>
   <si>
     <t>#PROTOCOL_NUMBER#</t>
   </si>
   <si>
+    <t>Дата начала:</t>
+  </si>
+  <si>
     <t>#DATE#</t>
   </si>
   <si>
+    <t>Дата окончания:</t>
+  </si>
+  <si>
+    <t>#DATE_END#</t>
+  </si>
+  <si>
+    <t>Время начала:</t>
+  </si>
+  <si>
     <t>#TIME#</t>
   </si>
   <si>
+    <t>Время окончания:</t>
+  </si>
+  <si>
+    <t>#TIME_END#</t>
+  </si>
+  <si>
     <t>Оператор:</t>
   </si>
   <si>
     <t>#OPERATOR#</t>
   </si>
   <si>
-    <t>Дата начала:</t>
-  </si>
-  <si>
-    <t>Время начала:</t>
-  </si>
-  <si>
-    <t>#DATE_END#</t>
-  </si>
-  <si>
-    <t>#TIME_END#</t>
-  </si>
-  <si>
-    <t>Дата окончания:</t>
-  </si>
-  <si>
-    <t>Время окончания:</t>
+    <t>Зав.номер контроллера:</t>
   </si>
   <si>
     <t>#NUMBER_CONTROLLER#</t>
   </si>
   <si>
-    <t>Зав.номер контроллера:</t>
-  </si>
-  <si>
-    <t>#NUMBER_DATE_ATTESTATION#</t>
-  </si>
-  <si>
-    <t>Номер и дата аттестации:</t>
-  </si>
-  <si>
-    <t>#NAME_OF_OPERATION#</t>
+    <t>#CIPHER1#</t>
+  </si>
+  <si>
+    <t>#CIPHER2#</t>
+  </si>
+  <si>
+    <t>#CIPHER3#</t>
+  </si>
+  <si>
+    <t>#NUMBER_PRODUCT1#</t>
+  </si>
+  <si>
+    <t>#NUMBER_PRODUCT2#</t>
+  </si>
+  <si>
+    <t>#NUMBER_PRODUCT3#</t>
   </si>
   <si>
     <t>Время</t>
   </si>
   <si>
+    <t>Общ</t>
+  </si>
+  <si>
+    <t>1 лоп</t>
+  </si>
+  <si>
+    <t>2 лоп</t>
+  </si>
+  <si>
+    <t>3 лоп</t>
+  </si>
+  <si>
     <t>сек</t>
   </si>
   <si>
@@ -104,41 +134,29 @@
     <t>I3, А</t>
   </si>
   <si>
-    <t>Общ</t>
-  </si>
-  <si>
-    <t>1 лоп</t>
-  </si>
-  <si>
-    <t>2 лоп</t>
-  </si>
-  <si>
-    <t>3 лоп</t>
-  </si>
-  <si>
-    <t>#CIPHER1#</t>
-  </si>
-  <si>
-    <t>#NUMBER_PRODUCT1#</t>
-  </si>
-  <si>
-    <t>#CIPHER2#</t>
-  </si>
-  <si>
-    <t>#NUMBER_PRODUCT2#</t>
-  </si>
-  <si>
-    <t>#CIPHER3#</t>
-  </si>
-  <si>
-    <t>#NUMBER_PRODUCT3#</t>
+    <t>Наименование тех.процесса:</t>
+  </si>
+  <si>
+    <t>Шифр:</t>
+  </si>
+  <si>
+    <t>Производственный номер:</t>
+  </si>
+  <si>
+    <t>Мастер:</t>
+  </si>
+  <si>
+    <t>Контролер:</t>
+  </si>
+  <si>
+    <t>Дата:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -160,6 +178,45 @@
       <charset val="204"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -176,50 +233,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -260,22 +285,22 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -286,17 +311,17 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -313,71 +338,84 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -404,9 +442,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>550272</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>126</xdr:rowOff>
+      <xdr:colOff>550080</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>294840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -419,8 +457,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13323201" y="19080"/>
-          <a:ext cx="1188000" cy="1188000"/>
+          <a:off x="16136640" y="19080"/>
+          <a:ext cx="1228680" cy="1161360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -724,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -762,20 +800,20 @@
       <c r="D2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
+      <c r="H2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
     <row r="3" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -786,7 +824,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="Q3" s="6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
@@ -794,35 +832,35 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
+      <c r="A5" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
     </row>
     <row r="6" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -833,178 +871,177 @@
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
-      <c r="K6" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
+      <c r="K6" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
     </row>
     <row r="7" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="8"/>
-      <c r="I7" s="7"/>
-      <c r="M7" s="27" t="s">
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="M7" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+    </row>
+    <row r="8" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-    </row>
-    <row r="8" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="8"/>
-      <c r="I8" s="7"/>
-      <c r="M8" s="27" t="s">
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="M8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
     </row>
     <row r="9" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="26" t="s">
+      <c r="A9" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-    </row>
-    <row r="10" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+    </row>
     <row r="11" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H11" s="7"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="C12" s="11" t="s">
+      <c r="A12" s="9"/>
+      <c r="C12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="C13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="11" t="s">
+    </row>
+    <row r="15" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="C15" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="C13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="12" t="s">
+      <c r="E15" s="16" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
     <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:S8"/>
     <mergeCell ref="H2:L2"/>
-    <mergeCell ref="D9:F9"/>
     <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="A5:S5"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="K6:S6"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A5:S5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="35" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1017,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:T199"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="L190" sqref="L190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,101 +1068,857 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="19"/>
+      <c r="A12" s="9"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="19"/>
+      <c r="A13" s="9"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="10"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="19"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="43" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A43" s="23"/>
+      <c r="B43" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="23"/>
+    </row>
+    <row r="44" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A44" s="23"/>
+      <c r="B44" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" s="33"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33"/>
+      <c r="S44" s="33"/>
+      <c r="T44" s="23"/>
+    </row>
+    <row r="45" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A45" s="23"/>
+      <c r="B45" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="33"/>
+      <c r="S45" s="33"/>
+      <c r="T45" s="23"/>
+    </row>
+    <row r="46" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A46" s="23"/>
+      <c r="B46" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="23"/>
+      <c r="S46" s="23"/>
+      <c r="T46" s="23"/>
+    </row>
+    <row r="47" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A47" s="23"/>
+      <c r="B47" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="23"/>
+    </row>
+    <row r="48" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A48" s="23"/>
+      <c r="B48" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="23"/>
+    </row>
+    <row r="49" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A49" s="23"/>
+      <c r="B49" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" s="34"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
+    </row>
+    <row r="93" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A93" s="23"/>
+      <c r="B93" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I93" s="23"/>
+      <c r="J93" s="23"/>
+      <c r="K93" s="23"/>
+      <c r="L93" s="23"/>
+      <c r="M93" s="23"/>
+      <c r="N93" s="23"/>
+      <c r="O93" s="23"/>
+      <c r="P93" s="23"/>
+      <c r="Q93" s="23"/>
+      <c r="R93" s="23"/>
+      <c r="S93" s="23"/>
+      <c r="T93" s="23"/>
+    </row>
+    <row r="94" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A94" s="23"/>
+      <c r="B94" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I94" s="23"/>
+      <c r="J94" s="23"/>
+      <c r="K94" s="23"/>
+      <c r="L94" s="23"/>
+      <c r="M94" s="23"/>
+      <c r="N94" s="23"/>
+      <c r="O94" s="23"/>
+      <c r="P94" s="23"/>
+      <c r="Q94" s="23"/>
+      <c r="R94" s="23"/>
+      <c r="S94" s="23"/>
+      <c r="T94" s="23"/>
+    </row>
+    <row r="95" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A95" s="23"/>
+      <c r="B95" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I95" s="23"/>
+      <c r="J95" s="23"/>
+      <c r="K95" s="23"/>
+      <c r="L95" s="23"/>
+      <c r="M95" s="23"/>
+      <c r="N95" s="23"/>
+      <c r="O95" s="23"/>
+      <c r="P95" s="23"/>
+      <c r="Q95" s="23"/>
+      <c r="R95" s="23"/>
+      <c r="S95" s="23"/>
+      <c r="T95" s="23"/>
+    </row>
+    <row r="96" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A96" s="23"/>
+      <c r="B96" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="32"/>
+      <c r="H96" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I96" s="23"/>
+      <c r="J96" s="23"/>
+      <c r="K96" s="23"/>
+      <c r="L96" s="23"/>
+      <c r="M96" s="23"/>
+      <c r="N96" s="23"/>
+      <c r="O96" s="23"/>
+      <c r="P96" s="23"/>
+      <c r="Q96" s="23"/>
+      <c r="R96" s="23"/>
+      <c r="S96" s="23"/>
+      <c r="T96" s="23"/>
+    </row>
+    <row r="97" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A97" s="23"/>
+      <c r="B97" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="23"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="23"/>
+      <c r="K97" s="34"/>
+      <c r="L97" s="34"/>
+      <c r="M97" s="23"/>
+      <c r="N97" s="23"/>
+      <c r="O97" s="23"/>
+      <c r="P97" s="23"/>
+      <c r="Q97" s="23"/>
+      <c r="R97" s="23"/>
+      <c r="S97" s="23"/>
+      <c r="T97" s="23"/>
+    </row>
+    <row r="98" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A98" s="23"/>
+      <c r="B98" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="23"/>
+      <c r="I98" s="23"/>
+      <c r="J98" s="23"/>
+      <c r="K98" s="23"/>
+      <c r="L98" s="23"/>
+      <c r="M98" s="23"/>
+      <c r="N98" s="23"/>
+      <c r="O98" s="23"/>
+      <c r="P98" s="23"/>
+      <c r="Q98" s="23"/>
+      <c r="R98" s="23"/>
+      <c r="S98" s="23"/>
+      <c r="T98" s="23"/>
+    </row>
+    <row r="99" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A99" s="23"/>
+      <c r="B99" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="I99" s="34"/>
+      <c r="J99" s="23"/>
+      <c r="K99" s="23"/>
+      <c r="L99" s="23"/>
+      <c r="M99" s="23"/>
+      <c r="N99" s="23"/>
+      <c r="O99" s="23"/>
+      <c r="P99" s="23"/>
+      <c r="Q99" s="23"/>
+      <c r="R99" s="23"/>
+      <c r="S99" s="23"/>
+      <c r="T99" s="23"/>
+    </row>
+    <row r="143" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A143" s="23"/>
+      <c r="B143" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C143" s="32"/>
+      <c r="D143" s="32"/>
+      <c r="E143" s="32"/>
+      <c r="F143" s="32"/>
+      <c r="G143" s="32"/>
+      <c r="H143" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I143" s="23"/>
+      <c r="J143" s="23"/>
+      <c r="K143" s="23"/>
+      <c r="L143" s="23"/>
+      <c r="M143" s="23"/>
+      <c r="N143" s="23"/>
+      <c r="O143" s="23"/>
+      <c r="P143" s="23"/>
+      <c r="Q143" s="23"/>
+      <c r="R143" s="23"/>
+      <c r="S143" s="23"/>
+      <c r="T143" s="23"/>
+    </row>
+    <row r="144" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A144" s="23"/>
+      <c r="B144" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C144" s="32"/>
+      <c r="D144" s="32"/>
+      <c r="E144" s="32"/>
+      <c r="F144" s="32"/>
+      <c r="G144" s="32"/>
+      <c r="H144" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I144" s="23"/>
+      <c r="J144" s="23"/>
+      <c r="K144" s="23"/>
+      <c r="L144" s="23"/>
+      <c r="M144" s="23"/>
+      <c r="N144" s="23"/>
+      <c r="O144" s="23"/>
+      <c r="P144" s="23"/>
+      <c r="Q144" s="23"/>
+      <c r="R144" s="23"/>
+      <c r="S144" s="23"/>
+      <c r="T144" s="23"/>
+    </row>
+    <row r="145" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A145" s="23"/>
+      <c r="B145" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C145" s="32"/>
+      <c r="D145" s="32"/>
+      <c r="E145" s="32"/>
+      <c r="F145" s="32"/>
+      <c r="G145" s="32"/>
+      <c r="H145" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I145" s="23"/>
+      <c r="J145" s="23"/>
+      <c r="K145" s="23"/>
+      <c r="L145" s="23"/>
+      <c r="M145" s="23"/>
+      <c r="N145" s="23"/>
+      <c r="O145" s="23"/>
+      <c r="P145" s="23"/>
+      <c r="Q145" s="23"/>
+      <c r="R145" s="23"/>
+      <c r="S145" s="23"/>
+      <c r="T145" s="23"/>
+    </row>
+    <row r="146" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A146" s="23"/>
+      <c r="B146" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C146" s="32"/>
+      <c r="D146" s="32"/>
+      <c r="E146" s="32"/>
+      <c r="F146" s="32"/>
+      <c r="G146" s="32"/>
+      <c r="H146" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I146" s="23"/>
+      <c r="J146" s="23"/>
+      <c r="K146" s="23"/>
+      <c r="L146" s="23"/>
+      <c r="M146" s="23"/>
+      <c r="N146" s="23"/>
+      <c r="O146" s="23"/>
+      <c r="P146" s="23"/>
+      <c r="Q146" s="23"/>
+      <c r="R146" s="23"/>
+      <c r="S146" s="23"/>
+      <c r="T146" s="23"/>
+    </row>
+    <row r="147" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A147" s="23"/>
+      <c r="B147" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C147" s="32"/>
+      <c r="D147" s="32"/>
+      <c r="E147" s="32"/>
+      <c r="F147" s="32"/>
+      <c r="G147" s="32"/>
+      <c r="H147" s="23"/>
+      <c r="I147" s="24"/>
+      <c r="J147" s="23"/>
+      <c r="K147" s="34"/>
+      <c r="L147" s="34"/>
+      <c r="M147" s="23"/>
+      <c r="N147" s="23"/>
+      <c r="O147" s="23"/>
+      <c r="P147" s="23"/>
+      <c r="Q147" s="23"/>
+      <c r="R147" s="23"/>
+      <c r="S147" s="23"/>
+      <c r="T147" s="23"/>
+    </row>
+    <row r="148" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A148" s="23"/>
+      <c r="B148" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C148" s="32"/>
+      <c r="D148" s="32"/>
+      <c r="E148" s="32"/>
+      <c r="F148" s="32"/>
+      <c r="G148" s="32"/>
+      <c r="H148" s="23"/>
+      <c r="I148" s="23"/>
+      <c r="J148" s="23"/>
+      <c r="K148" s="23"/>
+      <c r="L148" s="23"/>
+      <c r="M148" s="23"/>
+      <c r="N148" s="23"/>
+      <c r="O148" s="23"/>
+      <c r="P148" s="23"/>
+      <c r="Q148" s="23"/>
+      <c r="R148" s="23"/>
+      <c r="S148" s="23"/>
+      <c r="T148" s="23"/>
+    </row>
+    <row r="149" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A149" s="23"/>
+      <c r="B149" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C149" s="32"/>
+      <c r="D149" s="32"/>
+      <c r="E149" s="32"/>
+      <c r="F149" s="32"/>
+      <c r="G149" s="32"/>
+      <c r="H149" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="I149" s="34"/>
+      <c r="J149" s="23"/>
+      <c r="K149" s="23"/>
+      <c r="L149" s="23"/>
+      <c r="M149" s="23"/>
+      <c r="N149" s="23"/>
+      <c r="O149" s="23"/>
+      <c r="P149" s="23"/>
+      <c r="Q149" s="23"/>
+      <c r="R149" s="23"/>
+      <c r="S149" s="23"/>
+      <c r="T149" s="23"/>
+    </row>
+    <row r="193" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A193" s="23"/>
+      <c r="B193" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C193" s="32"/>
+      <c r="D193" s="32"/>
+      <c r="E193" s="32"/>
+      <c r="F193" s="32"/>
+      <c r="G193" s="32"/>
+      <c r="H193" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I193" s="23"/>
+      <c r="J193" s="23"/>
+      <c r="K193" s="23"/>
+      <c r="L193" s="23"/>
+      <c r="M193" s="23"/>
+      <c r="N193" s="23"/>
+      <c r="O193" s="23"/>
+      <c r="P193" s="23"/>
+      <c r="Q193" s="23"/>
+      <c r="R193" s="23"/>
+      <c r="S193" s="23"/>
+      <c r="T193" s="23"/>
+    </row>
+    <row r="194" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A194" s="23"/>
+      <c r="B194" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C194" s="32"/>
+      <c r="D194" s="32"/>
+      <c r="E194" s="32"/>
+      <c r="F194" s="32"/>
+      <c r="G194" s="32"/>
+      <c r="H194" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I194" s="23"/>
+      <c r="J194" s="23"/>
+      <c r="K194" s="23"/>
+      <c r="L194" s="23"/>
+      <c r="M194" s="23"/>
+      <c r="N194" s="23"/>
+      <c r="O194" s="23"/>
+      <c r="P194" s="23"/>
+      <c r="Q194" s="23"/>
+      <c r="R194" s="23"/>
+      <c r="S194" s="23"/>
+      <c r="T194" s="23"/>
+    </row>
+    <row r="195" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A195" s="23"/>
+      <c r="B195" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C195" s="32"/>
+      <c r="D195" s="32"/>
+      <c r="E195" s="32"/>
+      <c r="F195" s="32"/>
+      <c r="G195" s="32"/>
+      <c r="H195" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I195" s="23"/>
+      <c r="J195" s="23"/>
+      <c r="K195" s="23"/>
+      <c r="L195" s="23"/>
+      <c r="M195" s="23"/>
+      <c r="N195" s="23"/>
+      <c r="O195" s="23"/>
+      <c r="P195" s="23"/>
+      <c r="Q195" s="23"/>
+      <c r="R195" s="23"/>
+      <c r="S195" s="23"/>
+      <c r="T195" s="23"/>
+    </row>
+    <row r="196" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A196" s="23"/>
+      <c r="B196" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C196" s="32"/>
+      <c r="D196" s="32"/>
+      <c r="E196" s="32"/>
+      <c r="F196" s="32"/>
+      <c r="G196" s="32"/>
+      <c r="H196" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I196" s="23"/>
+      <c r="J196" s="23"/>
+      <c r="K196" s="23"/>
+      <c r="L196" s="23"/>
+      <c r="M196" s="23"/>
+      <c r="N196" s="23"/>
+      <c r="O196" s="23"/>
+      <c r="P196" s="23"/>
+      <c r="Q196" s="23"/>
+      <c r="R196" s="23"/>
+      <c r="S196" s="23"/>
+      <c r="T196" s="23"/>
+    </row>
+    <row r="197" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A197" s="23"/>
+      <c r="B197" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C197" s="32"/>
+      <c r="D197" s="32"/>
+      <c r="E197" s="32"/>
+      <c r="F197" s="32"/>
+      <c r="G197" s="32"/>
+      <c r="H197" s="23"/>
+      <c r="I197" s="24"/>
+      <c r="J197" s="23"/>
+      <c r="K197" s="34"/>
+      <c r="L197" s="34"/>
+      <c r="M197" s="23"/>
+      <c r="N197" s="23"/>
+      <c r="O197" s="23"/>
+      <c r="P197" s="23"/>
+      <c r="Q197" s="23"/>
+      <c r="R197" s="23"/>
+      <c r="S197" s="23"/>
+      <c r="T197" s="23"/>
+    </row>
+    <row r="198" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A198" s="23"/>
+      <c r="B198" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C198" s="32"/>
+      <c r="D198" s="32"/>
+      <c r="E198" s="32"/>
+      <c r="F198" s="32"/>
+      <c r="G198" s="32"/>
+      <c r="H198" s="23"/>
+      <c r="I198" s="23"/>
+      <c r="J198" s="23"/>
+      <c r="K198" s="23"/>
+      <c r="L198" s="23"/>
+      <c r="M198" s="23"/>
+      <c r="N198" s="23"/>
+      <c r="O198" s="23"/>
+      <c r="P198" s="23"/>
+      <c r="Q198" s="23"/>
+      <c r="R198" s="23"/>
+      <c r="S198" s="23"/>
+      <c r="T198" s="23"/>
+    </row>
+    <row r="199" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A199" s="23"/>
+      <c r="B199" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C199" s="32"/>
+      <c r="D199" s="32"/>
+      <c r="E199" s="32"/>
+      <c r="F199" s="32"/>
+      <c r="G199" s="32"/>
+      <c r="H199" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="I199" s="34"/>
+      <c r="J199" s="23"/>
+      <c r="K199" s="23"/>
+      <c r="L199" s="23"/>
+      <c r="M199" s="23"/>
+      <c r="N199" s="23"/>
+      <c r="O199" s="23"/>
+      <c r="P199" s="23"/>
+      <c r="Q199" s="23"/>
+      <c r="R199" s="23"/>
+      <c r="S199" s="23"/>
+      <c r="T199" s="23"/>
     </row>
   </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="B199:G199"/>
+    <mergeCell ref="H199:I199"/>
+    <mergeCell ref="B195:G195"/>
+    <mergeCell ref="B196:G196"/>
+    <mergeCell ref="B197:G197"/>
+    <mergeCell ref="K197:L197"/>
+    <mergeCell ref="B198:G198"/>
+    <mergeCell ref="B148:G148"/>
+    <mergeCell ref="B149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="B193:G193"/>
+    <mergeCell ref="B194:G194"/>
+    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="K147:L147"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="P45:S45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="P44:S44"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="52" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="17" manualBreakCount="17">
-    <brk id="43" max="16383" man="1"/>
-    <brk id="87" max="16383" man="1"/>
-    <brk id="131" max="16383" man="1"/>
-    <brk id="175" max="16383" man="1"/>
+    <brk id="50" max="16383" man="1"/>
+    <brk id="100" max="16383" man="1"/>
+    <brk id="150" max="16383" man="1"/>
+    <brk id="200" max="16383" man="1"/>
     <brk id="219" max="16383" man="1"/>
     <brk id="263" max="16383" man="1"/>
     <brk id="307" max="16383" man="1"/>
     <brk id="351" max="16383" man="1"/>
     <brk id="395" max="16383" man="1"/>
-    <brk id="437" max="18" man="1"/>
-    <brk id="481" max="18" man="1"/>
-    <brk id="525" max="18" man="1"/>
-    <brk id="569" max="18" man="1"/>
-    <brk id="613" max="18" man="1"/>
-    <brk id="657" max="18" man="1"/>
-    <brk id="701" max="18" man="1"/>
-    <brk id="745" max="18" man="1"/>
+    <brk id="437" max="16383" man="1"/>
+    <brk id="481" max="16383" man="1"/>
+    <brk id="525" max="16383" man="1"/>
+    <brk id="569" max="16383" man="1"/>
+    <brk id="613" max="16383" man="1"/>
+    <brk id="657" max="16383" man="1"/>
+    <brk id="701" max="16383" man="1"/>
+    <brk id="745" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>